--- a/OptionChain/DataSheet/Nifty_Weekly_17Oct.xlsx
+++ b/OptionChain/DataSheet/Nifty_Weekly_17Oct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>StrikePrices</t>
   </si>
@@ -31,6 +31,12 @@
     <t>CE_ImpliedVolatility</t>
   </si>
   <si>
+    <t>CE_LTP</t>
+  </si>
+  <si>
+    <t>PE_LTP</t>
+  </si>
+  <si>
     <t>PE_ImpliedVolatility</t>
   </si>
   <si>
@@ -43,157 +49,181 @@
     <t>PE_OpenInterest</t>
   </si>
   <si>
-    <t>10800_Friday</t>
-  </si>
-  <si>
-    <t>10800_Monday</t>
-  </si>
-  <si>
-    <t>10800_Tuesday</t>
-  </si>
-  <si>
-    <t>10800_Wednesday</t>
-  </si>
-  <si>
-    <t>10800_Thursday</t>
-  </si>
-  <si>
-    <t>10900_Friday</t>
-  </si>
-  <si>
-    <t>10900_Monday</t>
-  </si>
-  <si>
-    <t>10900_Tuesday</t>
-  </si>
-  <si>
-    <t>10900_Wednesday</t>
-  </si>
-  <si>
-    <t>10900_Thursday</t>
-  </si>
-  <si>
-    <t>11000_Friday</t>
-  </si>
-  <si>
-    <t>11000_Monday</t>
-  </si>
-  <si>
-    <t>11000_Tuesday</t>
-  </si>
-  <si>
-    <t>11000_Wednesday</t>
-  </si>
-  <si>
-    <t>11000_Thursday</t>
-  </si>
-  <si>
-    <t>11100_Friday</t>
-  </si>
-  <si>
-    <t>11100_Monday</t>
-  </si>
-  <si>
-    <t>11100_Tuesday</t>
-  </si>
-  <si>
-    <t>11100_Wednesday</t>
-  </si>
-  <si>
-    <t>11100_Thursday</t>
-  </si>
-  <si>
-    <t>11200_Friday</t>
-  </si>
-  <si>
-    <t>11200_Monday</t>
-  </si>
-  <si>
-    <t>11200_Tuesday</t>
-  </si>
-  <si>
-    <t>11200_Wednesday</t>
-  </si>
-  <si>
-    <t>11200_Thursday</t>
-  </si>
-  <si>
-    <t>11300_Friday</t>
-  </si>
-  <si>
-    <t>11300_Monday</t>
-  </si>
-  <si>
-    <t>11300_Tuesday</t>
-  </si>
-  <si>
-    <t>11300_Wednesday</t>
-  </si>
-  <si>
-    <t>11300_Thursday</t>
-  </si>
-  <si>
-    <t>11400_Friday</t>
-  </si>
-  <si>
-    <t>11400_Monday</t>
-  </si>
-  <si>
-    <t>11400_Tuesday</t>
-  </si>
-  <si>
-    <t>11400_Wednesday</t>
-  </si>
-  <si>
-    <t>11400_Thursday</t>
-  </si>
-  <si>
-    <t>11500_Friday</t>
-  </si>
-  <si>
-    <t>11500_Monday</t>
-  </si>
-  <si>
-    <t>11500_Tuesday</t>
-  </si>
-  <si>
-    <t>11500_Wednesday</t>
-  </si>
-  <si>
-    <t>11500_Thursday</t>
-  </si>
-  <si>
-    <t>11600_Friday</t>
-  </si>
-  <si>
-    <t>11600_Monday</t>
-  </si>
-  <si>
-    <t>11600_Tuesday</t>
-  </si>
-  <si>
-    <t>11600_Wednesday</t>
-  </si>
-  <si>
-    <t>11600_Thursday</t>
-  </si>
-  <si>
-    <t>11700_Friday</t>
-  </si>
-  <si>
-    <t>11700_Monday</t>
-  </si>
-  <si>
-    <t>11700_Tuesday</t>
-  </si>
-  <si>
-    <t>11700_Wednesday</t>
-  </si>
-  <si>
-    <t>11700_Thursday</t>
-  </si>
-  <si>
-    <t>Naga</t>
+    <t>LivePrice</t>
+  </si>
+  <si>
+    <t>10800.00_FRIDAY</t>
+  </si>
+  <si>
+    <t>10800.00_MONDAY</t>
+  </si>
+  <si>
+    <t>10800.00_TUESDAY</t>
+  </si>
+  <si>
+    <t>10800.00_WEDNESDAY</t>
+  </si>
+  <si>
+    <t>10800.00_THURSDAY</t>
+  </si>
+  <si>
+    <t>10900.00_FRIDAY</t>
+  </si>
+  <si>
+    <t>10900.00_MONDAY</t>
+  </si>
+  <si>
+    <t>10900.00_TUESDAY</t>
+  </si>
+  <si>
+    <t>10900.00_WEDNESDAY</t>
+  </si>
+  <si>
+    <t>10900.00_THURSDAY</t>
+  </si>
+  <si>
+    <t>11000.00_FRIDAY</t>
+  </si>
+  <si>
+    <t>11000.00_MONDAY</t>
+  </si>
+  <si>
+    <t>11000.00_TUESDAY</t>
+  </si>
+  <si>
+    <t>11000.00_WEDNESDAY</t>
+  </si>
+  <si>
+    <t>11000.00_THURSDAY</t>
+  </si>
+  <si>
+    <t>11100.00_FRIDAY</t>
+  </si>
+  <si>
+    <t>11100.00_MONDAY</t>
+  </si>
+  <si>
+    <t>11100.00_TUESDAY</t>
+  </si>
+  <si>
+    <t>11100.00_WEDNESDAY</t>
+  </si>
+  <si>
+    <t>11100.00_THURSDAY</t>
+  </si>
+  <si>
+    <t>11200.00_FRIDAY</t>
+  </si>
+  <si>
+    <t>11200.00_MONDAY</t>
+  </si>
+  <si>
+    <t>11200.00_TUESDAY</t>
+  </si>
+  <si>
+    <t>11200.00_WEDNESDAY</t>
+  </si>
+  <si>
+    <t>11200.00_THURSDAY</t>
+  </si>
+  <si>
+    <t>11300.00_FRIDAY</t>
+  </si>
+  <si>
+    <t>11300.00_MONDAY</t>
+  </si>
+  <si>
+    <t>11300.00_TUESDAY</t>
+  </si>
+  <si>
+    <t>11300.00_WEDNESDAY</t>
+  </si>
+  <si>
+    <t>11300.00_THURSDAY</t>
+  </si>
+  <si>
+    <t>11400.00_FRIDAY</t>
+  </si>
+  <si>
+    <t>11400.00_MONDAY</t>
+  </si>
+  <si>
+    <t>11400.00_TUESDAY</t>
+  </si>
+  <si>
+    <t>11400.00_WEDNESDAY</t>
+  </si>
+  <si>
+    <t>11400.00_THURSDAY</t>
+  </si>
+  <si>
+    <t>11500.00_FRIDAY</t>
+  </si>
+  <si>
+    <t>11500.00_MONDAY</t>
+  </si>
+  <si>
+    <t>11500.00_TUESDAY</t>
+  </si>
+  <si>
+    <t>11500.00_WEDNESDAY</t>
+  </si>
+  <si>
+    <t>11500.00_THURSDAY</t>
+  </si>
+  <si>
+    <t>11600.00_FRIDAY</t>
+  </si>
+  <si>
+    <t>11600.00_MONDAY</t>
+  </si>
+  <si>
+    <t>11600.00_TUESDAY</t>
+  </si>
+  <si>
+    <t>11600.00_WEDNESDAY</t>
+  </si>
+  <si>
+    <t>11600.00_THURSDAY</t>
+  </si>
+  <si>
+    <t>11700.00_FRIDAY</t>
+  </si>
+  <si>
+    <t>11700.00_MONDAY</t>
+  </si>
+  <si>
+    <t>11700.00_TUESDAY</t>
+  </si>
+  <si>
+    <t>11700.00_WEDNESDAY</t>
+  </si>
+  <si>
+    <t>11700.00_THURSDAY</t>
+  </si>
+  <si>
+    <t>2,700</t>
+  </si>
+  <si>
+    <t>2,625</t>
+  </si>
+  <si>
+    <t>8,550</t>
+  </si>
+  <si>
+    <t>32,100</t>
+  </si>
+  <si>
+    <t>466,500</t>
+  </si>
+  <si>
+    <t>432,825</t>
+  </si>
+  <si>
+    <t>711,375</t>
+  </si>
+  <si>
+    <t>816,825</t>
   </si>
 </sst>
 </file>
@@ -202,9 +232,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -222,31 +252,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,13 +282,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -275,49 +321,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,23 +344,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,6 +366,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -368,187 +398,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,6 +607,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -594,15 +633,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -612,17 +642,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,168 +675,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="2" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="23" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="9" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="21" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="20" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="5" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="5" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="2" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="26" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="4" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="4" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="2" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,10 +1158,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1140,14 +1170,14 @@
     <col min="2" max="2" customWidth="true" width="16.1111111111111" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="14.7777777777778" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.1111111111111" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.8888888888889" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.6666666666667" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.8888888888889" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.6666666666667" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1175,258 +1205,291 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/OptionChain/DataSheet/Nifty_Weekly_17Oct.xlsx
+++ b/OptionChain/DataSheet/Nifty_Weekly_17Oct.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="9204" windowWidth="23040"/>
+    <workbookView windowWidth="23040" windowHeight="9204"/>
   </bookViews>
   <sheets>
-    <sheet name="Weekly" r:id="rId1" sheetId="1"/>
+    <sheet name="Weekly" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="139">
   <si>
     <t>StrikePrices</t>
   </si>
@@ -61,6 +61,33 @@
     <t>10800.00_TUESDAY</t>
   </si>
   <si>
+    <t>2,700</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>793.85</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>41.49</t>
+  </si>
+  <si>
+    <t>10,489</t>
+  </si>
+  <si>
+    <t>-144,600</t>
+  </si>
+  <si>
+    <t>345,450</t>
+  </si>
+  <si>
+    <t>11,588.35</t>
+  </si>
+  <si>
     <t>10800.00_WEDNESDAY</t>
   </si>
   <si>
@@ -76,6 +103,33 @@
     <t>10900.00_TUESDAY</t>
   </si>
   <si>
+    <t>2,625</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>40.71</t>
+  </si>
+  <si>
+    <t>698.35</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>37.51</t>
+  </si>
+  <si>
+    <t>8,687</t>
+  </si>
+  <si>
+    <t>-126,750</t>
+  </si>
+  <si>
+    <t>181,125</t>
+  </si>
+  <si>
     <t>10900.00_WEDNESDAY</t>
   </si>
   <si>
@@ -91,6 +145,33 @@
     <t>11000.00_TUESDAY</t>
   </si>
   <si>
+    <t>8,550</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>57.77</t>
+  </si>
+  <si>
+    <t>621.15</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>33.44</t>
+  </si>
+  <si>
+    <t>29,175</t>
+  </si>
+  <si>
+    <t>102,150</t>
+  </si>
+  <si>
+    <t>903,375</t>
+  </si>
+  <si>
     <t>11000.00_WEDNESDAY</t>
   </si>
   <si>
@@ -106,6 +187,36 @@
     <t>11100.00_TUESDAY</t>
   </si>
   <si>
+    <t>2,475</t>
+  </si>
+  <si>
+    <t>-150</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>32.88</t>
+  </si>
+  <si>
+    <t>499.95</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>28.96</t>
+  </si>
+  <si>
+    <t>23,258</t>
+  </si>
+  <si>
+    <t>-180,450</t>
+  </si>
+  <si>
+    <t>461,250</t>
+  </si>
+  <si>
     <t>11100.00_WEDNESDAY</t>
   </si>
   <si>
@@ -121,6 +232,36 @@
     <t>11200.00_TUESDAY</t>
   </si>
   <si>
+    <t>27,750</t>
+  </si>
+  <si>
+    <t>-4,350</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>40.37</t>
+  </si>
+  <si>
+    <t>416.60</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>25.32</t>
+  </si>
+  <si>
+    <t>43,950</t>
+  </si>
+  <si>
+    <t>9,450</t>
+  </si>
+  <si>
+    <t>743,325</t>
+  </si>
+  <si>
     <t>11200.00_WEDNESDAY</t>
   </si>
   <si>
@@ -136,6 +277,36 @@
     <t>11300.00_TUESDAY</t>
   </si>
   <si>
+    <t>442,650</t>
+  </si>
+  <si>
+    <t>-23,850</t>
+  </si>
+  <si>
+    <t>1,322</t>
+  </si>
+  <si>
+    <t>31.83</t>
+  </si>
+  <si>
+    <t>314.65</t>
+  </si>
+  <si>
+    <t>3.80</t>
+  </si>
+  <si>
+    <t>21.30</t>
+  </si>
+  <si>
+    <t>88,544</t>
+  </si>
+  <si>
+    <t>-156,300</t>
+  </si>
+  <si>
+    <t>1,066,875</t>
+  </si>
+  <si>
     <t>11300.00_WEDNESDAY</t>
   </si>
   <si>
@@ -151,6 +322,36 @@
     <t>11400.00_TUESDAY</t>
   </si>
   <si>
+    <t>350,175</t>
+  </si>
+  <si>
+    <t>-82,650</t>
+  </si>
+  <si>
+    <t>4,886</t>
+  </si>
+  <si>
+    <t>25.91</t>
+  </si>
+  <si>
+    <t>218.70</t>
+  </si>
+  <si>
+    <t>7.70</t>
+  </si>
+  <si>
+    <t>18.29</t>
+  </si>
+  <si>
+    <t>148,064</t>
+  </si>
+  <si>
+    <t>-98,925</t>
+  </si>
+  <si>
+    <t>1,042,050</t>
+  </si>
+  <si>
     <t>11400.00_WEDNESDAY</t>
   </si>
   <si>
@@ -166,6 +367,36 @@
     <t>11500.00_TUESDAY</t>
   </si>
   <si>
+    <t>537,750</t>
+  </si>
+  <si>
+    <t>-173,625</t>
+  </si>
+  <si>
+    <t>27,269</t>
+  </si>
+  <si>
+    <t>21.77</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>21.20</t>
+  </si>
+  <si>
+    <t>16.67</t>
+  </si>
+  <si>
+    <t>266,559</t>
+  </si>
+  <si>
+    <t>-145,875</t>
+  </si>
+  <si>
+    <t>1,453,275</t>
+  </si>
+  <si>
     <t>11500.00_WEDNESDAY</t>
   </si>
   <si>
@@ -200,30 +431,6 @@
   </si>
   <si>
     <t>11700.00_THURSDAY</t>
-  </si>
-  <si>
-    <t>2,700</t>
-  </si>
-  <si>
-    <t>2,625</t>
-  </si>
-  <si>
-    <t>8,550</t>
-  </si>
-  <si>
-    <t>32,100</t>
-  </si>
-  <si>
-    <t>466,500</t>
-  </si>
-  <si>
-    <t>432,825</t>
-  </si>
-  <si>
-    <t>711,375</t>
-  </si>
-  <si>
-    <t>816,825</t>
   </si>
 </sst>
 </file>
@@ -231,10 +438,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -252,16 +459,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,60 +482,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -352,8 +497,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,14 +571,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,6 +587,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -398,13 +605,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,169 +689,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,17 +799,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,11 +843,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,8 +876,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,224 +896,209 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="9" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="21" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="26" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="4" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="4" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
-    <cellStyle builtinId="5" name="Percent" xfId="6"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
-    <cellStyle builtinId="10" name="Note" xfId="9"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="15" name="Title" xfId="16"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
-    <cellStyle builtinId="20" name="Input" xfId="21"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
-    <cellStyle builtinId="26" name="Good" xfId="23"/>
-    <cellStyle builtinId="21" name="Output" xfId="24"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
-    <cellStyle builtinId="25" name="Total" xfId="28"/>
-    <cellStyle builtinId="27" name="Bad" xfId="29"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -905,10 +1112,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1072,21 +1279,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1103,7 +1310,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1156,25 +1363,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.1111111111111" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7777777777778" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.1111111111111" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.8888888888889" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.6666666666667" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="22.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="11.1111111111111" customWidth="1"/>
+    <col min="5" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="18.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="14.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1224,276 +1431,513 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>29</v>
+      <c r="I22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" t="s">
+        <v>96</v>
+      </c>
+      <c r="L34" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" t="s">
+        <v>110</v>
+      </c>
+      <c r="K40" t="s">
+        <v>111</v>
+      </c>
+      <c r="L40" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>116</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" t="s">
+        <v>122</v>
+      </c>
+      <c r="H46" t="s">
+        <v>123</v>
+      </c>
+      <c r="I46" t="s">
+        <v>124</v>
+      </c>
+      <c r="J46" t="s">
+        <v>125</v>
+      </c>
+      <c r="K46" t="s">
+        <v>126</v>
+      </c>
+      <c r="L46" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/OptionChain/DataSheet/Nifty_Weekly_17Oct.xlsx
+++ b/OptionChain/DataSheet/Nifty_Weekly_17Oct.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9204"/>
+    <workbookView windowHeight="9204" windowWidth="23040"/>
   </bookViews>
   <sheets>
-    <sheet name="Weekly" sheetId="1" r:id="rId1"/>
+    <sheet name="Weekly" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="280">
   <si>
     <t>StrikePrices</t>
   </si>
@@ -431,6 +431,429 @@
   </si>
   <si>
     <t>11700.00_THURSDAY</t>
+  </si>
+  <si>
+    <t>1,800</t>
+  </si>
+  <si>
+    <t>-900</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>84.86</t>
+  </si>
+  <si>
+    <t>818.00</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>55.59</t>
+  </si>
+  <si>
+    <t>3,789</t>
+  </si>
+  <si>
+    <t>-56,175</t>
+  </si>
+  <si>
+    <t>289,275</t>
+  </si>
+  <si>
+    <t>11,604.10</t>
+  </si>
+  <si>
+    <t>1,725</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>80.92</t>
+  </si>
+  <si>
+    <t>721.55</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>49.65</t>
+  </si>
+  <si>
+    <t>3,484</t>
+  </si>
+  <si>
+    <t>-35,250</t>
+  </si>
+  <si>
+    <t>145,875</t>
+  </si>
+  <si>
+    <t>8,325</t>
+  </si>
+  <si>
+    <t>-225</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>605.00</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>43.91</t>
+  </si>
+  <si>
+    <t>18,715</t>
+  </si>
+  <si>
+    <t>-16,950</t>
+  </si>
+  <si>
+    <t>886,425</t>
+  </si>
+  <si>
+    <t>2,325</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>54.10</t>
+  </si>
+  <si>
+    <t>515.00</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>37.92</t>
+  </si>
+  <si>
+    <t>8,643</t>
+  </si>
+  <si>
+    <t>-94,875</t>
+  </si>
+  <si>
+    <t>366,375</t>
+  </si>
+  <si>
+    <t>24,525</t>
+  </si>
+  <si>
+    <t>-3,225</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>45.33</t>
+  </si>
+  <si>
+    <t>415.00</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>34.64</t>
+  </si>
+  <si>
+    <t>28,517</t>
+  </si>
+  <si>
+    <t>20,100</t>
+  </si>
+  <si>
+    <t>763,425</t>
+  </si>
+  <si>
+    <t>399,525</t>
+  </si>
+  <si>
+    <t>-43,125</t>
+  </si>
+  <si>
+    <t>1,326</t>
+  </si>
+  <si>
+    <t>37.60</t>
+  </si>
+  <si>
+    <t>316.15</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>28.51</t>
+  </si>
+  <si>
+    <t>67,061</t>
+  </si>
+  <si>
+    <t>-101,700</t>
+  </si>
+  <si>
+    <t>965,175</t>
+  </si>
+  <si>
+    <t>300,000</t>
+  </si>
+  <si>
+    <t>-50,175</t>
+  </si>
+  <si>
+    <t>5,284</t>
+  </si>
+  <si>
+    <t>30.68</t>
+  </si>
+  <si>
+    <t>219.35</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>21.80</t>
+  </si>
+  <si>
+    <t>167,721</t>
+  </si>
+  <si>
+    <t>213,525</t>
+  </si>
+  <si>
+    <t>1,255,575</t>
+  </si>
+  <si>
+    <t>427,425</t>
+  </si>
+  <si>
+    <t>-110,325</t>
+  </si>
+  <si>
+    <t>66,007</t>
+  </si>
+  <si>
+    <t>23.32</t>
+  </si>
+  <si>
+    <t>125.40</t>
+  </si>
+  <si>
+    <t>8.75</t>
+  </si>
+  <si>
+    <t>17.61</t>
+  </si>
+  <si>
+    <t>424,427</t>
+  </si>
+  <si>
+    <t>149,925</t>
+  </si>
+  <si>
+    <t>1,603,200</t>
+  </si>
+  <si>
+    <t>-75</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>3,948</t>
+  </si>
+  <si>
+    <t>4,425</t>
+  </si>
+  <si>
+    <t>293,700</t>
+  </si>
+  <si>
+    <t>11,582.60</t>
+  </si>
+  <si>
+    <t>1,350</t>
+  </si>
+  <si>
+    <t>-375</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>657.60</t>
+  </si>
+  <si>
+    <t>3,505</t>
+  </si>
+  <si>
+    <t>-7,875</t>
+  </si>
+  <si>
+    <t>138,000</t>
+  </si>
+  <si>
+    <t>7,725</t>
+  </si>
+  <si>
+    <t>-600</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>578.15</t>
+  </si>
+  <si>
+    <t>16,335</t>
+  </si>
+  <si>
+    <t>-57,375</t>
+  </si>
+  <si>
+    <t>829,050</t>
+  </si>
+  <si>
+    <t>2,100</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>481.00</t>
+  </si>
+  <si>
+    <t>5,440</t>
+  </si>
+  <si>
+    <t>-113,700</t>
+  </si>
+  <si>
+    <t>252,675</t>
+  </si>
+  <si>
+    <t>34,800</t>
+  </si>
+  <si>
+    <t>10,275</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>382.65</t>
+  </si>
+  <si>
+    <t>14,105</t>
+  </si>
+  <si>
+    <t>-210,000</t>
+  </si>
+  <si>
+    <t>553,425</t>
+  </si>
+  <si>
+    <t>170,325</t>
+  </si>
+  <si>
+    <t>-229,200</t>
+  </si>
+  <si>
+    <t>7,240</t>
+  </si>
+  <si>
+    <t>283.00</t>
+  </si>
+  <si>
+    <t>41,775</t>
+  </si>
+  <si>
+    <t>-167,025</t>
+  </si>
+  <si>
+    <t>798,150</t>
+  </si>
+  <si>
+    <t>123,075</t>
+  </si>
+  <si>
+    <t>-176,925</t>
+  </si>
+  <si>
+    <t>9,852</t>
+  </si>
+  <si>
+    <t>182.75</t>
+  </si>
+  <si>
+    <t>107,367</t>
+  </si>
+  <si>
+    <t>-315,675</t>
+  </si>
+  <si>
+    <t>939,900</t>
+  </si>
+  <si>
+    <t>128,925</t>
+  </si>
+  <si>
+    <t>-298,500</t>
+  </si>
+  <si>
+    <t>129,777</t>
+  </si>
+  <si>
+    <t>82.30</t>
+  </si>
+  <si>
+    <t>822,072</t>
+  </si>
+  <si>
+    <t>580,350</t>
+  </si>
+  <si>
+    <t>2,183,550</t>
+  </si>
+  <si>
+    <t>3,072,675</t>
+  </si>
+  <si>
+    <t>1,643,400</t>
+  </si>
+  <si>
+    <t>1,240,474</t>
+  </si>
+  <si>
+    <t>17.50</t>
+  </si>
+  <si>
+    <t>917,171</t>
+  </si>
+  <si>
+    <t>-1,366,275</t>
+  </si>
+  <si>
+    <t>476,025</t>
   </si>
 </sst>
 </file>
@@ -898,207 +1321,207 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="8" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="28" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="27" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="15" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="15" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1112,10 +1535,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1279,21 +1702,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1310,7 +1733,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1363,9 +1786,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -1373,15 +1796,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="11.1111111111111" customWidth="1"/>
-    <col min="5" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="18.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.1111111111111" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.1111111111111" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7777777777778" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.1111111111111" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.8888888888889" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.6666666666667" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1474,11 +1897,77 @@
       <c r="A5" t="s">
         <v>24</v>
       </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>25</v>
       </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K6" t="s">
+        <v>223</v>
+      </c>
+      <c r="L6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
@@ -1532,11 +2021,77 @@
       <c r="A11" t="s">
         <v>38</v>
       </c>
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>39</v>
       </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>229</v>
+      </c>
+      <c r="J12" t="s">
+        <v>230</v>
+      </c>
+      <c r="K12" t="s">
+        <v>231</v>
+      </c>
+      <c r="L12" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
@@ -1590,11 +2145,77 @@
       <c r="A17" t="s">
         <v>52</v>
       </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>53</v>
       </c>
+      <c r="B18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J18" t="s">
+        <v>237</v>
+      </c>
+      <c r="K18" t="s">
+        <v>238</v>
+      </c>
+      <c r="L18" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
@@ -1648,11 +2269,77 @@
       <c r="A23" t="s">
         <v>67</v>
       </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" t="s">
+        <v>176</v>
+      </c>
+      <c r="L23" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>68</v>
       </c>
+      <c r="B24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" t="s">
+        <v>220</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>242</v>
+      </c>
+      <c r="J24" t="s">
+        <v>243</v>
+      </c>
+      <c r="K24" t="s">
+        <v>244</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
@@ -1706,11 +2393,77 @@
       <c r="A29" t="s">
         <v>82</v>
       </c>
+      <c r="B29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" t="s">
+        <v>182</v>
+      </c>
+      <c r="H29" t="s">
+        <v>183</v>
+      </c>
+      <c r="I29" t="s">
+        <v>184</v>
+      </c>
+      <c r="J29" t="s">
+        <v>185</v>
+      </c>
+      <c r="K29" t="s">
+        <v>186</v>
+      </c>
+      <c r="L29" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>83</v>
       </c>
+      <c r="B30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" t="s">
+        <v>247</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>249</v>
+      </c>
+      <c r="J30" t="s">
+        <v>250</v>
+      </c>
+      <c r="K30" t="s">
+        <v>251</v>
+      </c>
+      <c r="L30" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
@@ -1764,11 +2517,77 @@
       <c r="A35" t="s">
         <v>97</v>
       </c>
+      <c r="B35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" t="s">
+        <v>191</v>
+      </c>
+      <c r="G35" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" t="s">
+        <v>193</v>
+      </c>
+      <c r="I35" t="s">
+        <v>194</v>
+      </c>
+      <c r="J35" t="s">
+        <v>195</v>
+      </c>
+      <c r="K35" t="s">
+        <v>196</v>
+      </c>
+      <c r="L35" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>98</v>
       </c>
+      <c r="B36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" t="s">
+        <v>253</v>
+      </c>
+      <c r="D36" t="s">
+        <v>254</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G36" t="s">
+        <v>220</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>256</v>
+      </c>
+      <c r="J36" t="s">
+        <v>257</v>
+      </c>
+      <c r="K36" t="s">
+        <v>258</v>
+      </c>
+      <c r="L36" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
@@ -1822,11 +2641,77 @@
       <c r="A41" t="s">
         <v>112</v>
       </c>
+      <c r="B41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" t="s">
+        <v>200</v>
+      </c>
+      <c r="F41" t="s">
+        <v>201</v>
+      </c>
+      <c r="G41" t="s">
+        <v>202</v>
+      </c>
+      <c r="H41" t="s">
+        <v>203</v>
+      </c>
+      <c r="I41" t="s">
+        <v>204</v>
+      </c>
+      <c r="J41" t="s">
+        <v>205</v>
+      </c>
+      <c r="K41" t="s">
+        <v>206</v>
+      </c>
+      <c r="L41" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>113</v>
       </c>
+      <c r="B42" t="s">
+        <v>259</v>
+      </c>
+      <c r="C42" t="s">
+        <v>260</v>
+      </c>
+      <c r="D42" t="s">
+        <v>261</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>262</v>
+      </c>
+      <c r="G42" t="s">
+        <v>220</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>263</v>
+      </c>
+      <c r="J42" t="s">
+        <v>264</v>
+      </c>
+      <c r="K42" t="s">
+        <v>265</v>
+      </c>
+      <c r="L42" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
@@ -1880,11 +2765,77 @@
       <c r="A47" t="s">
         <v>127</v>
       </c>
+      <c r="B47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G47" t="s">
+        <v>212</v>
+      </c>
+      <c r="H47" t="s">
+        <v>213</v>
+      </c>
+      <c r="I47" t="s">
+        <v>214</v>
+      </c>
+      <c r="J47" t="s">
+        <v>215</v>
+      </c>
+      <c r="K47" t="s">
+        <v>216</v>
+      </c>
+      <c r="L47" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>128</v>
       </c>
+      <c r="B48" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" t="s">
+        <v>268</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>269</v>
+      </c>
+      <c r="G48" t="s">
+        <v>220</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>270</v>
+      </c>
+      <c r="J48" t="s">
+        <v>271</v>
+      </c>
+      <c r="K48" t="s">
+        <v>272</v>
+      </c>
+      <c r="L48" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
@@ -1910,6 +2861,39 @@
       <c r="A54" t="s">
         <v>133</v>
       </c>
+      <c r="B54" t="s">
+        <v>273</v>
+      </c>
+      <c r="C54" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54" t="s">
+        <v>275</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>220</v>
+      </c>
+      <c r="G54" t="s">
+        <v>276</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" t="s">
+        <v>277</v>
+      </c>
+      <c r="J54" t="s">
+        <v>278</v>
+      </c>
+      <c r="K54" t="s">
+        <v>279</v>
+      </c>
+      <c r="L54" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
@@ -1937,7 +2921,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>